--- a/MODEL/Human_Model_Data_Quickgraphs.xlsx
+++ b/MODEL/Human_Model_Data_Quickgraphs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="27960" windowHeight="18340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Human_Model_Data.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -88,10 +88,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,13 +130,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -346,11 +370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143332088"/>
-        <c:axId val="-2104543912"/>
+        <c:axId val="2139161784"/>
+        <c:axId val="2124837976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143332088"/>
+        <c:axId val="2139161784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104543912"/>
+        <c:crossAx val="2124837976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -367,7 +391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104543912"/>
+        <c:axId val="2124837976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -379,7 +403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143332088"/>
+        <c:crossAx val="2139161784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -423,7 +447,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Human_Model_Data.csv!$A$20:$C$37</c:f>
+              <c:f>Human_Model_Data.csv!$A$38:$C$55</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="18"/>
                 <c:lvl>
@@ -599,7 +623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Human_Model_Data.csv!$D$20:$D$37</c:f>
+              <c:f>Human_Model_Data.csv!$D$38:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -670,11 +694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102854760"/>
-        <c:axId val="-2103035480"/>
+        <c:axId val="2139437624"/>
+        <c:axId val="2139998456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102854760"/>
+        <c:axId val="2139437624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103035480"/>
+        <c:crossAx val="2139998456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103035480"/>
+        <c:axId val="2139998456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -703,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102854760"/>
+        <c:crossAx val="2139437624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -747,7 +771,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Human_Model_Data.csv!$B$38:$C$55</c:f>
+              <c:f>Human_Model_Data.csv!$B$20:$C$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="18"/>
                 <c:lvl>
@@ -867,7 +891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Human_Model_Data.csv!$D$38:$D$55</c:f>
+              <c:f>Human_Model_Data.csv!$D$20:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -938,11 +962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143604072"/>
-        <c:axId val="-2100731256"/>
+        <c:axId val="-2098777640"/>
+        <c:axId val="-2099358792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143604072"/>
+        <c:axId val="-2098777640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100731256"/>
+        <c:crossAx val="-2099358792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100731256"/>
+        <c:axId val="-2099358792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143604072"/>
+        <c:crossAx val="-2098777640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1023,14 +1047,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1053,14 +1077,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1407,7 +1431,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1795,12 +1819,12 @@
         <v>0.82417580000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1809,12 +1833,12 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>0.14491999999999999</v>
+        <v>0.22619</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1823,12 +1847,12 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>0.28909000000000001</v>
+        <v>0.40476000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1837,12 +1861,12 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>0.43253999999999998</v>
+        <v>0.55357000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1851,12 +1875,12 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>0.57533000000000001</v>
+        <v>0.68254000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1865,12 +1889,12 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>0.71748000000000001</v>
+        <v>0.79762</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1879,12 +1903,12 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>0.85902000000000001</v>
+        <v>0.90259999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1893,12 +1917,12 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>0.85902000000000001</v>
+        <v>0.90259999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1907,12 +1931,12 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>0.71748000000000001</v>
+        <v>0.79762</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1921,12 +1945,12 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>0.57533000000000001</v>
+        <v>0.68254000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1935,12 +1959,12 @@
         <v>11</v>
       </c>
       <c r="D29">
-        <v>0.43253999999999998</v>
+        <v>0.55357000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1949,12 +1973,12 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>0.28909000000000001</v>
+        <v>0.40476000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1963,12 +1987,12 @@
         <v>13</v>
       </c>
       <c r="D31">
-        <v>0.14491999999999999</v>
+        <v>0.22619</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -1977,12 +2001,12 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>0.99605999999999995</v>
+        <v>0.87121000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1991,12 +2015,12 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>0.99343999999999999</v>
+        <v>0.79762</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2005,12 +2029,12 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>0.99212999999999996</v>
+        <v>0.76388999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2019,12 +2043,12 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>0.99212999999999996</v>
+        <v>0.76388999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -2033,15 +2057,15 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <v>0.99343999999999999</v>
+        <v>0.79762</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2050,12 +2074,12 @@
         <v>13</v>
       </c>
       <c r="D37">
-        <v>0.99605999999999995</v>
+        <v>0.87121000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2064,12 +2088,12 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>0.22619</v>
+        <v>0.14491999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -2078,12 +2102,12 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>0.40476000000000001</v>
+        <v>0.28909000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -2092,12 +2116,12 @@
         <v>10</v>
       </c>
       <c r="D40">
-        <v>0.55357000000000001</v>
+        <v>0.43253999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -2106,12 +2130,12 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <v>0.68254000000000004</v>
+        <v>0.57533000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2120,12 +2144,12 @@
         <v>12</v>
       </c>
       <c r="D42">
-        <v>0.79762</v>
+        <v>0.71748000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2134,12 +2158,12 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <v>0.90259999999999996</v>
+        <v>0.85902000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2148,12 +2172,12 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>0.90259999999999996</v>
+        <v>0.85902000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2162,12 +2186,12 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>0.79762</v>
+        <v>0.71748000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2176,12 +2200,12 @@
         <v>10</v>
       </c>
       <c r="D46">
-        <v>0.68254000000000004</v>
+        <v>0.57533000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2190,12 +2214,12 @@
         <v>11</v>
       </c>
       <c r="D47">
-        <v>0.55357000000000001</v>
+        <v>0.43253999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2204,12 +2228,12 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>0.40476000000000001</v>
+        <v>0.28909000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2218,12 +2242,12 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>0.22619</v>
+        <v>0.14491999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -2232,12 +2256,12 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>0.87121000000000004</v>
+        <v>0.99605999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -2246,12 +2270,12 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>0.79762</v>
+        <v>0.99343999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2260,12 +2284,12 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>0.76388999999999996</v>
+        <v>0.99212999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2274,12 +2298,12 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <v>0.76388999999999996</v>
+        <v>0.99212999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2288,12 +2312,12 @@
         <v>12</v>
       </c>
       <c r="D54">
-        <v>0.79762</v>
+        <v>0.99343999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -2302,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D55">
-        <v>0.87121000000000004</v>
+        <v>0.99605999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/MODEL/Human_Model_Data_Quickgraphs.xlsx
+++ b/MODEL/Human_Model_Data_Quickgraphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-33200" yWindow="-4880" windowWidth="20480" windowHeight="12320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Human_Model_Data.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="25">
   <si>
     <t>Source</t>
   </si>
@@ -83,12 +83,24 @@
   <si>
     <t>5 VERBS</t>
   </si>
+  <si>
+    <t>Prettier V5 down here</t>
+  </si>
+  <si>
+    <t>Include Subject</t>
+  </si>
+  <si>
+    <t>Include Object</t>
+  </si>
+  <si>
+    <t>Include Verb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +124,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,21 +149,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -168,7 +204,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0464859148041277"/>
+          <c:y val="0.0787037037037037"/>
+          <c:w val="0.934880544823201"/>
+          <c:h val="0.737531350247886"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -370,11 +416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139161784"/>
-        <c:axId val="2124837976"/>
+        <c:axId val="2116770136"/>
+        <c:axId val="2119652392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139161784"/>
+        <c:axId val="2116770136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124837976"/>
+        <c:crossAx val="2119652392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -391,7 +437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124837976"/>
+        <c:axId val="2119652392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -403,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139161784"/>
+        <c:crossAx val="2116770136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -694,11 +740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139437624"/>
-        <c:axId val="2139998456"/>
+        <c:axId val="2121707480"/>
+        <c:axId val="2121327848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139437624"/>
+        <c:axId val="2121707480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139998456"/>
+        <c:crossAx val="2121327848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -715,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139998456"/>
+        <c:axId val="2121327848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -727,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139437624"/>
+        <c:crossAx val="2121707480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -962,11 +1008,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098777640"/>
-        <c:axId val="-2099358792"/>
+        <c:axId val="2063610744"/>
+        <c:axId val="2108884584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098777640"/>
+        <c:axId val="2063610744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099358792"/>
+        <c:crossAx val="2108884584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099358792"/>
+        <c:axId val="2108884584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,11 +1040,444 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098777640"/>
+        <c:crossAx val="2063610744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="122"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="22"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1_6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$61:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.40476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.68254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$F$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Human_Model_Data.csv!$G$59:$I$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Include Subject</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Include Object</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Include Verb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Human_Model_Data.csv!$G$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2122620472"/>
+        <c:axId val="2118495240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2122620472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118495240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2118495240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122620472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1098,6 +1577,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2231,7 +2740,7 @@
         <v>0.28909000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2245,7 +2754,7 @@
         <v>0.14491999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2259,7 +2768,7 @@
         <v>0.99605999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2782,7 @@
         <v>0.99343999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2796,7 @@
         <v>0.99212999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2301,7 +2810,7 @@
         <v>0.99212999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +2824,7 @@
         <v>0.99343999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2327,6 +2836,292 @@
       </c>
       <c r="D55">
         <v>0.99605999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.22619</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.22619</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.87121000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.40476000000000001</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.40476000000000001</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.79762</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.79762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.55357000000000001</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.55357000000000001</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.68254000000000004</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.76388999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.68254000000000004</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.68254000000000004</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.55357000000000001</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.76388999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.79762</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.79762</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.40476000000000001</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.79762</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.22619</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.87121000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.90259999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.79762</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.68254000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.55357000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.40476000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.22619</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.87121000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.79762</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.76388999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.76388999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.79762</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.87121000000000004</v>
       </c>
     </row>
   </sheetData>
